--- a/闪拍说明文档.xlsx
+++ b/闪拍说明文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1280" yWindow="1560" windowWidth="25600" windowHeight="14120" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="文件说明" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>class</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1306,19 +1306,6 @@
         <charset val="134"/>
       </rPr>
       <t>任务</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击任务后的任务详情没完成：签到，答题，问卷，拼图，猜图！</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1360,7 +1347,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成：答题，问卷</t>
+    <t>SPTaskBeginController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务开始页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前只有：答题|问卷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成：答题，问卷，拼图，猜图。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击任务后的任务详情没完成！！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经完成部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,7 +1565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1602,6 +1618,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1633,7 +1652,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1968,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1983,26 +2002,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
@@ -2014,8 +2033,8 @@
       <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
@@ -2027,8 +2046,8 @@
       <c r="D4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
@@ -2040,8 +2059,8 @@
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="1" t="s">
@@ -2050,8 +2069,8 @@
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
@@ -2060,12 +2079,12 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
@@ -2074,8 +2093,8 @@
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
@@ -2084,8 +2103,8 @@
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
@@ -2097,12 +2116,12 @@
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="1" t="s">
@@ -2111,7 +2130,7 @@
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
@@ -2120,10 +2139,10 @@
       <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="1" t="s">
@@ -2132,10 +2151,10 @@
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="21"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="E17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
@@ -2144,7 +2163,7 @@
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
@@ -2153,10 +2172,10 @@
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="E20" s="21"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
@@ -2165,10 +2184,10 @@
       <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="E22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
@@ -2177,10 +2196,10 @@
       <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="E24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
@@ -2189,7 +2208,7 @@
       <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="1" t="s">
@@ -2198,7 +2217,7 @@
       <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="1" t="s">
@@ -2207,10 +2226,10 @@
       <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="E28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="1" t="s">
@@ -2222,7 +2241,7 @@
       <c r="D29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="1" t="s">
@@ -2231,10 +2250,10 @@
       <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="E31" s="21"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="1" t="s">
@@ -2243,7 +2262,7 @@
       <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="21"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
@@ -2252,7 +2271,7 @@
       <c r="C33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="21"/>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="1" t="s">
@@ -2261,7 +2280,7 @@
       <c r="C34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="21"/>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="1" t="s">
@@ -2270,7 +2289,7 @@
       <c r="C35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="21"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="1" t="s">
@@ -2279,7 +2298,7 @@
       <c r="C36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="21"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="1" t="s">
@@ -2288,7 +2307,7 @@
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="21"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="1" t="s">
@@ -2297,7 +2316,7 @@
       <c r="C38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="21"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="1" t="s">
@@ -2306,7 +2325,7 @@
       <c r="C39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="21"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="1" t="s">
@@ -2315,22 +2334,31 @@
       <c r="C40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E40" s="21"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="E41" s="21"/>
+      <c r="B41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="E42" s="21"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="E43" s="21"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="E44" s="21"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="E45" s="21"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="1" t="s">
@@ -2339,7 +2367,7 @@
       <c r="C46" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="21"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="1" t="s">
@@ -2348,7 +2376,7 @@
       <c r="C47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="21"/>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="1" t="s">
@@ -2360,7 +2388,7 @@
       <c r="D48" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="21"/>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5">
       <c r="B49" s="1" t="s">
@@ -2369,7 +2397,7 @@
       <c r="C49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E49" s="21"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5">
       <c r="B50" s="1" t="s">
@@ -2378,7 +2406,7 @@
       <c r="C50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="21"/>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5">
       <c r="B51" s="1" t="s">
@@ -2387,7 +2415,7 @@
       <c r="C51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="21"/>
+      <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5">
       <c r="B52" s="1" t="s">
@@ -2396,7 +2424,7 @@
       <c r="C52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="21"/>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="1" t="s">
@@ -2405,20 +2433,20 @@
       <c r="C53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="21"/>
+      <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="E54" s="21"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="65" customHeight="1">
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="26"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="21"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" ht="96" customHeight="1">
       <c r="A56" s="6" t="s">
@@ -2430,7 +2458,7 @@
       <c r="C56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="21"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5">
       <c r="B57" s="1" t="s">
@@ -2439,7 +2467,7 @@
       <c r="C57" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="21"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5">
       <c r="B58" s="1" t="s">
@@ -2448,7 +2476,7 @@
       <c r="C58" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5" ht="57" customHeight="1">
       <c r="B59" s="1" t="s">
@@ -2457,7 +2485,7 @@
       <c r="C59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="21"/>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5">
       <c r="B60" s="1" t="s">
@@ -2469,7 +2497,7 @@
       <c r="D60" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E60" s="21"/>
+      <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5">
       <c r="B61" s="1" t="s">
@@ -2478,7 +2506,7 @@
       <c r="C61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="21"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5">
       <c r="B62" s="1" t="s">
@@ -2487,7 +2515,7 @@
       <c r="C62" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="21"/>
+      <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5">
       <c r="B63" s="1" t="s">
@@ -2496,7 +2524,7 @@
       <c r="C63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="21"/>
+      <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5">
       <c r="B64" s="1" t="s">
@@ -2505,7 +2533,7 @@
       <c r="C64" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E64" s="21"/>
+      <c r="E64" s="22"/>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" s="1" t="s">
@@ -2517,7 +2545,7 @@
       <c r="D65" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E65" s="21"/>
+      <c r="E65" s="22"/>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="1" t="s">
@@ -2526,7 +2554,7 @@
       <c r="C66" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="21"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="1" t="s">
@@ -2535,7 +2563,7 @@
       <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E67" s="21"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="1" t="s">
@@ -2544,7 +2572,7 @@
       <c r="C68" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E68" s="21"/>
+      <c r="E68" s="22"/>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="1" t="s">
@@ -2553,7 +2581,7 @@
       <c r="C69" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E69" s="21"/>
+      <c r="E69" s="22"/>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="1" t="s">
@@ -2562,7 +2590,7 @@
       <c r="C70" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E70" s="21"/>
+      <c r="E70" s="22"/>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="1" t="s">
@@ -2571,7 +2599,7 @@
       <c r="C71" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E71" s="21"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="1" t="s">
@@ -2580,7 +2608,7 @@
       <c r="C72" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E72" s="21"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="1" t="s">
@@ -2589,7 +2617,7 @@
       <c r="C73" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E73" s="21"/>
+      <c r="E73" s="22"/>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="1" t="s">
@@ -2598,7 +2626,7 @@
       <c r="C74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E74" s="21"/>
+      <c r="E74" s="22"/>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="1" t="s">
@@ -2607,34 +2635,34 @@
       <c r="C75" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="21"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="E76" s="21"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="E77" s="21"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="E78" s="21"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="E79" s="21"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="E80" s="21"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="21"/>
+      <c r="E81" s="22"/>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="21"/>
+      <c r="E82" s="22"/>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="21"/>
+      <c r="E83" s="22"/>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="21"/>
+      <c r="E84" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2735,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -2749,11 +2777,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14" t="s">
@@ -2763,7 +2791,10 @@
         <v>142</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="79" customHeight="1">
@@ -2771,13 +2802,13 @@
         <v>143</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>152</v>
+      <c r="D4" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2797,22 +2828,22 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39">
       <c r="A9" s="11"/>
       <c r="B9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
